--- a/jett-core/templates/NullTagTemplate.xlsx
+++ b/jett-core/templates/NullTagTemplate.xlsx
@@ -25,20 +25,49 @@
     <t>Body</t>
   </si>
   <si>
-    <t>&lt;jt:null text="${doesNotExist}" /&gt;</t>
+    <t>&lt;jt:null&gt;${doesNotExistEither}&lt;/jt:null&gt;</t>
   </si>
   <si>
-    <t>&lt;jt:null&gt;${doesNotExistEither}&lt;/jt:null&gt;</t>
+    <r>
+      <t>&lt;jt:null text="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${doesNotExist}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,7 +414,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -395,7 +424,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
